--- a/biology/Zoologie/Hocheur/Hocheur.xlsx
+++ b/biology/Zoologie/Hocheur/Hocheur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hocheur est le nom vernaculaire ambigu donné, en français, à certaines espèces de singes parmi les cercopithèques.
 </t>
@@ -511,11 +523,13 @@
           <t>Étymologie et histoire du terme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Hocheur » vient du français hocher, qui veut dire secouer ou remuer[1]. Et effet, ces cercopithèques inclinent le haut du corps vers l'avant et hochent rapidement la tête quand ils veulent prendre une attitude menaçante[2].
-Dans cette acception, le terme est absent des dictionnaires anciens ou académiques[1] ainsi que du dictionnaire français Larousse[3].
-Le Dictionnaire de la langue française d'Émile Littré, publié en 1863[4], définit le hocheur uniquement comme étant un « singe d'Afrique »[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Hocheur » vient du français hocher, qui veut dire secouer ou remuer. Et effet, ces cercopithèques inclinent le haut du corps vers l'avant et hochent rapidement la tête quand ils veulent prendre une attitude menaçante.
+Dans cette acception, le terme est absent des dictionnaires anciens ou académiques ainsi que du dictionnaire français Larousse.
+Le Dictionnaire de la langue française d'Émile Littré, publié en 1863, définit le hocheur uniquement comme étant un « singe d'Afrique ».
 </t>
         </is>
       </c>
@@ -544,19 +558,21 @@
           <t>Noms vernaculaires et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste alphabétique de noms vernaculaires attestés[6] en français. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste alphabétique de noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
-Cercopithèque hocheur - voir Singe hocheur[7]
-Hocheur — sans autre précision, voir Singe hocheur[7],[8]
-Hocheur blanc-nez  - voir Singe hocheur et Hocheur blanc-nez du Bénin[8]
-Hocheur blanc-nez du Bénin — Cercopithecus petaurista[8]
-Hocheur de Martin - voir Singe hocheur, ssp. Cercopithecus nictitans martini[8]
-Hocheur à nez rouge — Cercopithecus erythrotis[8]
-Hocheur de Stampfl - voir Singe hocheur, ssp. Cercopithecus nictitans stampfli[8]
-Hocheur à ventre roux ou Hocheur à ventre rouge — Cercopithecus erythrogaster[9],[8]
-Singe hocheur - Cercopithecus nictitans[10]</t>
+Cercopithèque hocheur - voir Singe hocheur
+Hocheur — sans autre précision, voir Singe hocheur,
+Hocheur blanc-nez  - voir Singe hocheur et Hocheur blanc-nez du Bénin
+Hocheur blanc-nez du Bénin — Cercopithecus petaurista
+Hocheur de Martin - voir Singe hocheur, ssp. Cercopithecus nictitans martini
+Hocheur à nez rouge — Cercopithecus erythrotis
+Hocheur de Stampfl - voir Singe hocheur, ssp. Cercopithecus nictitans stampfli
+Hocheur à ventre roux ou Hocheur à ventre rouge — Cercopithecus erythrogaster,
+Singe hocheur - Cercopithecus nictitans</t>
         </is>
       </c>
     </row>
@@ -584,7 +600,9 @@
           <t>Physiologie, comportement et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractéristiques générales des hocheurs sont celles des singes cercopithèques, avec des nuances pour chaque espèce : voir les articles détaillés pour plus d'informations sur leur comportement ou leur physiologie respective.
 </t>
